--- a/BalanceSheet/SNOW_bal.xlsx
+++ b/BalanceSheet/SNOW_bal.xlsx
@@ -386,16 +386,16 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>928000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-963000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>14000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-2857000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8000000.0</v>
